--- a/results/mp/logistic/corona/confidence/126/desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,55 +64,73 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>safe</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
@@ -127,46 +139,37 @@
     <t>won</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>care</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>you</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,7 +538,7 @@
         <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8947368421052632</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -643,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8424657534246576</v>
+        <v>0.821917808219178</v>
       </c>
       <c r="C4">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K4">
-        <v>0.9583333333333334</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -717,13 +720,13 @@
         <v>21</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -793,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7222222222222222</v>
+        <v>0.5767195767195767</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7">
-        <v>0.9152542372881356</v>
+        <v>0.8851174934725848</v>
       </c>
       <c r="L7">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="M7">
-        <v>54</v>
+        <v>339</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5686274509803921</v>
+        <v>0.5213178294573644</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>269</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>247</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K8">
-        <v>0.9007832898172323</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L8">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="M8">
-        <v>345</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5661375661375662</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C9">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="D9">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8962264150943396</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L9">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5155038759689923</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="C10">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="D10">
-        <v>266</v>
+        <v>71</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K10">
-        <v>0.890625</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -985,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -993,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3758389261744967</v>
+        <v>0.0992063492063492</v>
       </c>
       <c r="C11">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8732394366197183</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,37 +1046,37 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.25</v>
+        <v>0.01138760016870519</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="G12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>270</v>
+        <v>2344</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1093,13 +1096,13 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>0.8837209302325582</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1111,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1119,13 +1122,13 @@
         <v>30</v>
       </c>
       <c r="K14">
-        <v>0.8802816901408451</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L14">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="M14">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1137,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1145,13 +1148,13 @@
         <v>31</v>
       </c>
       <c r="K15">
-        <v>0.86875</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L15">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="M15">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1163,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1171,13 +1174,13 @@
         <v>32</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.8515625</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1197,13 +1200,13 @@
         <v>33</v>
       </c>
       <c r="K17">
-        <v>0.851063829787234</v>
+        <v>0.83125</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1223,13 +1226,13 @@
         <v>34</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8297872340425532</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1241,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1249,13 +1252,13 @@
         <v>35</v>
       </c>
       <c r="K19">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="L19">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1267,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1275,13 +1278,13 @@
         <v>36</v>
       </c>
       <c r="K20">
-        <v>0.7948717948717948</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L20">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M20">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1327,13 +1330,13 @@
         <v>38</v>
       </c>
       <c r="K22">
-        <v>0.7777777777777778</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1345,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1353,13 +1356,13 @@
         <v>39</v>
       </c>
       <c r="K23">
-        <v>0.7428571428571429</v>
+        <v>0.76</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1371,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1379,13 +1382,13 @@
         <v>40</v>
       </c>
       <c r="K24">
-        <v>0.7411764705882353</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L24">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1397,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1405,13 +1408,13 @@
         <v>41</v>
       </c>
       <c r="K25">
-        <v>0.7238493723849372</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L25">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="M25">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>66</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1431,13 +1434,13 @@
         <v>42</v>
       </c>
       <c r="K26">
-        <v>0.7076923076923077</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1449,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1457,13 +1460,13 @@
         <v>43</v>
       </c>
       <c r="K27">
-        <v>0.7050847457627119</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L27">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="M27">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1483,13 +1486,13 @@
         <v>44</v>
       </c>
       <c r="K28">
-        <v>0.6808510638297872</v>
+        <v>0.6972789115646258</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>205</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1498,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1509,13 +1512,13 @@
         <v>45</v>
       </c>
       <c r="K29">
-        <v>0.6714285714285714</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M29">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1535,13 +1538,13 @@
         <v>46</v>
       </c>
       <c r="K30">
-        <v>0.65</v>
+        <v>0.6861924686192469</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1553,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1561,13 +1564,13 @@
         <v>47</v>
       </c>
       <c r="K31">
-        <v>0.5955056179775281</v>
+        <v>0.6067415730337079</v>
       </c>
       <c r="L31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M31">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1579,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1587,7 +1590,7 @@
         <v>48</v>
       </c>
       <c r="K32">
-        <v>0.5256410256410257</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L32">
         <v>41</v>
@@ -1605,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1613,13 +1616,13 @@
         <v>49</v>
       </c>
       <c r="K33">
-        <v>0.4901960784313725</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1631,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1639,13 +1642,13 @@
         <v>50</v>
       </c>
       <c r="K34">
-        <v>0.410958904109589</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1657,7 +1660,33 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35">
+        <v>0.02840434419381788</v>
+      </c>
+      <c r="L35">
+        <v>34</v>
+      </c>
+      <c r="M35">
+        <v>37</v>
+      </c>
+      <c r="N35">
+        <v>0.92</v>
+      </c>
+      <c r="O35">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
